--- a/healix/Dokumentation/IPT_4.1_Planung_BenjaminMaier_LuisAllamand.xlsx
+++ b/healix/Dokumentation/IPT_4.1_Planung_BenjaminMaier_LuisAllamand.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sluz-my.sharepoint.com/personal/benjamin_maier_sluz_ch/Documents/BBZW_2/Sem_1/M294/IPT_4.1/IPT41_Healix/ipt41_healix/healix/Dokumentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sluz-my.sharepoint.com/personal/benjamin_maier_sluz_ch/Documents/BBZW_2/Sem_1/M294/IPT_4.1/healix_ipt4.1/healix/Dokumentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{14191AFD-2DDC-4FC7-81D7-011950CE4E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4084DE6-D5CD-4310-B05B-893CABCC13C8}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{14191AFD-2DDC-4FC7-81D7-011950CE4E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD3817C6-2029-432C-A197-CA028FBC6ADE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B6C794F3-3924-4A91-8356-28099CF117F8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>KW</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>Backend, airtable: L, Auth : B</t>
+  </si>
+  <si>
+    <t>Alle grösseren Hauptfunktionen sind fertig</t>
+  </si>
+  <si>
+    <t>CSS für bestehende Ansichten fertig</t>
   </si>
 </sst>
 </file>
@@ -615,7 +621,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,7 +714,9 @@
       <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G4" s="7" t="s">
         <v>17</v>
       </c>
@@ -727,7 +735,9 @@
       <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
       </c>
@@ -770,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="5">
-        <v>45300</v>
+        <v>45301</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="6" t="s">
@@ -789,7 +799,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="5">
-        <v>45307</v>
+        <v>45308</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
@@ -837,6 +847,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100DDF4D2E7F3118443AD20435AE2E42667" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7a2ebddc97dfe63a05e72a2bc3f08687">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="45c0e5b3-e657-49fb-8cf1-272892bb7acd" xmlns:ns4="cd9eb20f-ef3e-4bf9-86ce-4656e2de5944" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8c05ce292722f08975ddf68ab9342a1b" ns3:_="" ns4:_="">
     <xsd:import namespace="45c0e5b3-e657-49fb-8cf1-272892bb7acd"/>
@@ -1063,15 +1082,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00384BEF-3733-4B9E-8973-38BDCE1B5FD7}">
   <ds:schemaRefs>
@@ -1090,6 +1100,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2797158-87BA-41A1-87B5-EDB722600721}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBCBDC3F-9CC0-4597-B6CA-7B8832E4784C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1106,12 +1124,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2797158-87BA-41A1-87B5-EDB722600721}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>